--- a/result/problem_3/worker_update_2.xlsx
+++ b/result/problem_3/worker_update_2.xlsx
@@ -577,7 +577,7 @@
         <v>450</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G2" t="n">
         <v>450</v>
@@ -610,19 +610,19 @@
         <v>10125</v>
       </c>
       <c r="Q2" t="n">
-        <v>10158</v>
+        <v>10535</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>10135</v>
       </c>
       <c r="S2" t="n">
         <v>9900</v>
       </c>
       <c r="T2" t="n">
-        <v>1187</v>
+        <v>900</v>
       </c>
       <c r="U2" t="n">
-        <v>22765</v>
+        <v>10190</v>
       </c>
       <c r="V2" t="n">
         <v>900</v>
@@ -631,10 +631,10 @@
         <v>1125</v>
       </c>
       <c r="X2" t="n">
-        <v>11648</v>
+        <v>14379</v>
       </c>
       <c r="Y2" t="n">
-        <v>8951</v>
+        <v>1125</v>
       </c>
       <c r="Z2" t="n">
         <v>9900</v>
@@ -660,7 +660,7 @@
         <v>675</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H3" t="n">
         <v>450</v>
@@ -687,13 +687,13 @@
         <v>10570</v>
       </c>
       <c r="P3" t="n">
-        <v>10274</v>
+        <v>10267</v>
       </c>
       <c r="Q3" t="n">
         <v>900</v>
       </c>
       <c r="R3" t="n">
-        <v>11028</v>
+        <v>10263</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>900</v>
       </c>
       <c r="U3" t="n">
-        <v>14045</v>
+        <v>10673</v>
       </c>
       <c r="V3" t="n">
         <v>900</v>
@@ -711,7 +711,7 @@
         <v>1125</v>
       </c>
       <c r="X3" t="n">
-        <v>8673</v>
+        <v>11445</v>
       </c>
       <c r="Y3" t="n">
         <v>1125</v>
@@ -734,7 +734,7 @@
         <v>675</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F4" t="n">
         <v>675</v>
@@ -755,7 +755,7 @@
         <v>675</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="M4" t="n">
         <v>675</v>
@@ -767,13 +767,13 @@
         <v>9900</v>
       </c>
       <c r="P4" t="n">
-        <v>10195</v>
+        <v>9329</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>9907</v>
       </c>
       <c r="R4" t="n">
-        <v>21691</v>
+        <v>11937</v>
       </c>
       <c r="S4" t="n">
         <v>900</v>
@@ -785,19 +785,19 @@
         <v>10125</v>
       </c>
       <c r="V4" t="n">
-        <v>4338</v>
+        <v>900</v>
       </c>
       <c r="W4" t="n">
         <v>1125</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>10405</v>
       </c>
       <c r="Y4" t="n">
-        <v>4794</v>
+        <v>1125</v>
       </c>
       <c r="Z4" t="n">
-        <v>7437</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>450</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I5" t="n">
         <v>675</v>
@@ -853,7 +853,7 @@
         <v>9900</v>
       </c>
       <c r="R5" t="n">
-        <v>10169</v>
+        <v>10344</v>
       </c>
       <c r="S5" t="n">
         <v>9900</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2257</v>
+        <v>10190</v>
       </c>
       <c r="V5" t="n">
         <v>10045</v>
@@ -871,7 +871,7 @@
         <v>1125</v>
       </c>
       <c r="X5" t="n">
-        <v>30832</v>
+        <v>10164</v>
       </c>
       <c r="Y5" t="n">
         <v>1125</v>
@@ -900,7 +900,7 @@
         <v>675</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H6" t="n">
         <v>450</v>
@@ -918,7 +918,7 @@
         <v>675</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="N6" t="n">
         <v>450</v>
@@ -927,37 +927,37 @@
         <v>900</v>
       </c>
       <c r="P6" t="n">
-        <v>10365</v>
+        <v>10432</v>
       </c>
       <c r="Q6" t="n">
-        <v>1183</v>
+        <v>8102</v>
       </c>
       <c r="R6" t="n">
-        <v>18700</v>
+        <v>10221</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4409</v>
+        <v>900</v>
       </c>
       <c r="U6" t="n">
         <v>10865</v>
       </c>
       <c r="V6" t="n">
-        <v>6528</v>
+        <v>900</v>
       </c>
       <c r="W6" t="n">
-        <v>1811</v>
+        <v>1125</v>
       </c>
       <c r="X6" t="n">
-        <v>12015</v>
+        <v>10125</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2473</v>
       </c>
       <c r="Z6" t="n">
-        <v>990</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7">
@@ -980,13 +980,13 @@
         <v>675</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H7" t="n">
         <v>450</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J7" t="n">
         <v>450</v>
@@ -995,7 +995,7 @@
         <v>675</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="M7" t="n">
         <v>675</v>
@@ -1007,13 +1007,13 @@
         <v>900</v>
       </c>
       <c r="P7" t="n">
-        <v>10221</v>
+        <v>1125</v>
       </c>
       <c r="Q7" t="n">
         <v>10698</v>
       </c>
       <c r="R7" t="n">
-        <v>20728</v>
+        <v>10157</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>9900</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>10170</v>
       </c>
       <c r="V7" t="n">
         <v>900</v>
@@ -1031,7 +1031,7 @@
         <v>10125</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>10231</v>
       </c>
       <c r="Y7" t="n">
         <v>10125</v>
@@ -1054,7 +1054,7 @@
         <v>675</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F8" t="n">
         <v>675</v>
@@ -1090,31 +1090,31 @@
         <v>10125</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="R8" t="n">
-        <v>11304</v>
+        <v>10483</v>
       </c>
       <c r="S8" t="n">
-        <v>2140</v>
+        <v>900</v>
       </c>
       <c r="T8" t="n">
         <v>900</v>
       </c>
       <c r="U8" t="n">
-        <v>13885</v>
+        <v>10753</v>
       </c>
       <c r="V8" t="n">
-        <v>6249</v>
+        <v>8673</v>
       </c>
       <c r="W8" t="n">
         <v>1125</v>
       </c>
       <c r="X8" t="n">
-        <v>14694</v>
+        <v>12213</v>
       </c>
       <c r="Y8" t="n">
-        <v>3049</v>
+        <v>1125</v>
       </c>
       <c r="Z8" t="n">
         <v>900</v>
@@ -1161,37 +1161,37 @@
         <v>675</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O9" t="n">
         <v>900</v>
       </c>
       <c r="P9" t="n">
-        <v>10217</v>
+        <v>10268</v>
       </c>
       <c r="Q9" t="n">
-        <v>10770</v>
+        <v>900</v>
       </c>
       <c r="R9" t="n">
         <v>10125</v>
       </c>
       <c r="S9" t="n">
-        <v>900</v>
+        <v>8934</v>
       </c>
       <c r="T9" t="n">
-        <v>1187</v>
+        <v>900</v>
       </c>
       <c r="U9" t="n">
-        <v>10401</v>
+        <v>9557</v>
       </c>
       <c r="V9" t="n">
         <v>900</v>
       </c>
       <c r="W9" t="n">
-        <v>4901</v>
+        <v>1125</v>
       </c>
       <c r="X9" t="n">
-        <v>11295</v>
+        <v>11078</v>
       </c>
       <c r="Y9" t="n">
         <v>1125</v>
@@ -1217,7 +1217,7 @@
         <v>450</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G10" t="n">
         <v>450</v>
@@ -1226,16 +1226,16 @@
         <v>450</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J10" t="n">
         <v>450</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="M10" t="n">
         <v>675</v>
@@ -1253,7 +1253,7 @@
         <v>9900</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10448</v>
       </c>
       <c r="S10" t="n">
         <v>9900</v>
@@ -1262,7 +1262,7 @@
         <v>900</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>10460</v>
       </c>
       <c r="V10" t="n">
         <v>900</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2165</v>
       </c>
       <c r="Y10" t="n">
-        <v>5856</v>
+        <v>1125</v>
       </c>
       <c r="Z10" t="n">
-        <v>1603</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="11">
@@ -1297,16 +1297,16 @@
         <v>450</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H11" t="n">
         <v>450</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J11" t="n">
         <v>450</v>
@@ -1318,7 +1318,7 @@
         <v>675</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="N11" t="n">
         <v>450</v>
@@ -1327,22 +1327,22 @@
         <v>9900</v>
       </c>
       <c r="P11" t="n">
-        <v>10197</v>
+        <v>8665</v>
       </c>
       <c r="Q11" t="n">
-        <v>10375</v>
+        <v>900</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1269</v>
+        <v>900</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>10292</v>
       </c>
       <c r="V11" t="n">
         <v>900</v>
@@ -1351,10 +1351,10 @@
         <v>1125</v>
       </c>
       <c r="X11" t="n">
-        <v>11320</v>
+        <v>10165</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7266</v>
       </c>
       <c r="Z11" t="n">
         <v>900</v>
@@ -1374,10 +1374,10 @@
         <v>675</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G12" t="n">
         <v>450</v>
@@ -1410,10 +1410,10 @@
         <v>10140</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10180</v>
       </c>
       <c r="S12" t="n">
         <v>900</v>
@@ -1431,7 +1431,7 @@
         <v>1125</v>
       </c>
       <c r="X12" t="n">
-        <v>10459</v>
+        <v>10328</v>
       </c>
       <c r="Y12" t="n">
         <v>1125</v>
@@ -1454,22 +1454,22 @@
         <v>675</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F13" t="n">
         <v>675</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
         <v>675</v>
@@ -1481,19 +1481,19 @@
         <v>675</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O13" t="n">
         <v>9900</v>
       </c>
       <c r="P13" t="n">
-        <v>10155</v>
+        <v>10402</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1982</v>
       </c>
       <c r="R13" t="n">
-        <v>10609</v>
+        <v>10939</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="W13" t="n">
         <v>1125</v>
       </c>
       <c r="X13" t="n">
-        <v>10125</v>
+        <v>11123</v>
       </c>
       <c r="Y13" t="n">
         <v>1125</v>
@@ -1528,13 +1528,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D14" t="n">
         <v>675</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F14" t="n">
         <v>675</v>
@@ -1543,13 +1543,13 @@
         <v>450</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I14" t="n">
         <v>675</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
         <v>675</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10125</v>
+        <v>10617</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="R14" t="n">
-        <v>10680</v>
+        <v>10610</v>
       </c>
       <c r="S14" t="n">
         <v>900</v>
@@ -1585,16 +1585,16 @@
         <v>10125</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="W14" t="n">
         <v>1125</v>
       </c>
       <c r="X14" t="n">
-        <v>10436</v>
+        <v>10183</v>
       </c>
       <c r="Y14" t="n">
-        <v>1799</v>
+        <v>9240</v>
       </c>
       <c r="Z14" t="n">
         <v>9965</v>
@@ -1611,10 +1611,10 @@
         <v>450</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F15" t="n">
         <v>675</v>
@@ -1623,7 +1623,7 @@
         <v>450</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I15" t="n">
         <v>675</v>
@@ -1632,7 +1632,7 @@
         <v>450</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="L15" t="n">
         <v>675</v>
@@ -1647,13 +1647,13 @@
         <v>900</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3582</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="R15" t="n">
-        <v>10135</v>
+        <v>10365</v>
       </c>
       <c r="S15" t="n">
         <v>9900</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10341</v>
+        <v>9363</v>
       </c>
       <c r="V15" t="n">
         <v>900</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>10544</v>
+        <v>10623</v>
       </c>
       <c r="Y15" t="n">
         <v>10245</v>
@@ -1691,7 +1691,7 @@
         <v>450</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E16" t="n">
         <v>450</v>
@@ -1706,7 +1706,7 @@
         <v>450</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J16" t="n">
         <v>450</v>
@@ -1727,28 +1727,28 @@
         <v>900</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2778</v>
       </c>
       <c r="Q16" t="n">
-        <v>3987</v>
+        <v>900</v>
       </c>
       <c r="R16" t="n">
-        <v>10323</v>
+        <v>10823</v>
       </c>
       <c r="S16" t="n">
-        <v>6674</v>
+        <v>900</v>
       </c>
       <c r="T16" t="n">
         <v>900</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2323</v>
       </c>
       <c r="V16" t="n">
         <v>9900</v>
       </c>
       <c r="W16" t="n">
-        <v>1811</v>
+        <v>6273</v>
       </c>
       <c r="X16" t="n">
         <v>10125</v>
@@ -1777,7 +1777,7 @@
         <v>450</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G17" t="n">
         <v>450</v>
@@ -1807,13 +1807,13 @@
         <v>900</v>
       </c>
       <c r="P17" t="n">
-        <v>4205</v>
+        <v>1125</v>
       </c>
       <c r="Q17" t="n">
         <v>900</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>10481</v>
       </c>
       <c r="S17" t="n">
         <v>10630</v>
@@ -1822,7 +1822,7 @@
         <v>900</v>
       </c>
       <c r="U17" t="n">
-        <v>10293</v>
+        <v>1125</v>
       </c>
       <c r="V17" t="n">
         <v>900</v>
@@ -1831,7 +1831,7 @@
         <v>1125</v>
       </c>
       <c r="X17" t="n">
-        <v>10713</v>
+        <v>10715</v>
       </c>
       <c r="Y17" t="n">
         <v>1125</v>
@@ -1848,7 +1848,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D18" t="n">
         <v>675</v>
@@ -1860,13 +1860,13 @@
         <v>675</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H18" t="n">
         <v>450</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J18" t="n">
         <v>450</v>
@@ -1887,22 +1887,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3240</v>
+        <v>1125</v>
       </c>
       <c r="Q18" t="n">
-        <v>1643</v>
+        <v>900</v>
       </c>
       <c r="R18" t="n">
-        <v>10125</v>
+        <v>10775</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>941</v>
+        <v>900</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3115</v>
       </c>
       <c r="V18" t="n">
         <v>900</v>
@@ -1911,7 +1911,7 @@
         <v>10400</v>
       </c>
       <c r="X18" t="n">
-        <v>10581</v>
+        <v>10439</v>
       </c>
       <c r="Y18" t="n">
         <v>1125</v>
@@ -1928,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D19" t="n">
         <v>675</v>
@@ -1949,7 +1949,7 @@
         <v>675</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K19" t="n">
         <v>675</v>
@@ -1958,43 +1958,43 @@
         <v>675</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1484</v>
+        <v>1125</v>
       </c>
       <c r="Q19" t="n">
         <v>900</v>
       </c>
       <c r="R19" t="n">
-        <v>10126</v>
+        <v>5514</v>
       </c>
       <c r="S19" t="n">
         <v>9900</v>
       </c>
       <c r="T19" t="n">
-        <v>1105</v>
+        <v>5598</v>
       </c>
       <c r="U19" t="n">
-        <v>10307</v>
+        <v>1125</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1898</v>
       </c>
       <c r="W19" t="n">
         <v>1125</v>
       </c>
       <c r="X19" t="n">
-        <v>10379</v>
+        <v>10183</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D20" t="n">
         <v>675</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F20" t="n">
         <v>675</v>
@@ -2023,7 +2023,7 @@
         <v>450</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I20" t="n">
         <v>675</v>
@@ -2032,28 +2032,28 @@
         <v>450</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="L20" t="n">
         <v>675</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1408</v>
+        <v>6040</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1734</v>
       </c>
       <c r="R20" t="n">
-        <v>10393</v>
+        <v>4347</v>
       </c>
       <c r="S20" t="n">
         <v>900</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5549</v>
+        <v>1125</v>
       </c>
       <c r="V20" t="n">
         <v>900</v>
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10624</v>
+        <v>10183</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2088,16 +2088,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E21" t="n">
         <v>450</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="G21" t="n">
         <v>450</v>
@@ -2106,16 +2106,16 @@
         <v>450</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J21" t="n">
         <v>450</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="M21" t="n">
         <v>675</v>
@@ -2127,22 +2127,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>6113</v>
       </c>
       <c r="Q21" t="n">
         <v>900</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7018</v>
       </c>
       <c r="S21" t="n">
-        <v>1920</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
         <v>900</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="V21" t="n">
         <v>900</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>8292</v>
       </c>
       <c r="Y21" t="n">
         <v>1125</v>
